--- a/biology/Médecine/Hugo_Ehrenfest/Hugo_Ehrenfest.xlsx
+++ b/biology/Médecine/Hugo_Ehrenfest/Hugo_Ehrenfest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo Ehrenfest, né le 13 mars 1870 à Vienne et décédé le 24 mars 1942 à Saint-Louis, est un professeur d'obstétrique et co-éditeur de l'American Journal of Obstetrics and Gynecology (AJOG). Il est issu d'une famille d'origine juive. Il est le frère aîné du physicien théoricien Paul Ehrenfest.
 </t>
@@ -511,12 +523,14 @@
           <t>Carrière universitaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu son doctorat de médecine à l'université de Vienne en 1894, Hugo Ehrenfest fut l'assistant du professeur Schauta à la clinique obstétricale Allgemeine Krankenhaus jusqu'en 1899.
 Il émigre aux États-Unis en 1900 pour intégrer l'Université de Saint-Louis. En 1904 il y est nommé professeur-adjoint de gynécologie-obstétrique. En 1907, il a été élu membre de la Société américaine de gynécologie, puis vice-président en 1921. Il fut également membre de l'Association centrale des obstétriciens et gynécologues et de la Société gynécologique de Saint-Louis.
-En 1922 il est promu professeur agrégé d'obstétrique et de gynécologie à l'université de médecine de Washington. En 1936 il y obtient le titre de professeur émérite. Il exerçait parallèlement à l'Hôpital Juif, à la maternité de Saint-Louis et à l'hôpital Barnes[1].
-Le 18 février 1931 Hugo Ehrenfest a présenté son étude sur la relation du traumatisme de la naissance sur la mortalité néonatale et la morbidité infantile lors de la Conférence de la Maison-Blanche pour la prévention et la protection de la santé infantile, qui s'est tenue à Washington[2].
+En 1922 il est promu professeur agrégé d'obstétrique et de gynécologie à l'université de médecine de Washington. En 1936 il y obtient le titre de professeur émérite. Il exerçait parallèlement à l'Hôpital Juif, à la maternité de Saint-Louis et à l'hôpital Barnes.
+Le 18 février 1931 Hugo Ehrenfest a présenté son étude sur la relation du traumatisme de la naissance sur la mortalité néonatale et la morbidité infantile lors de la Conférence de la Maison-Blanche pour la prévention et la protection de la santé infantile, qui s'est tenue à Washington.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Co-éditeur de l'AJOG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1920, Hugo Ehrenfest devient associé-directeur de la revue médicale American Journal of Obstetrics and Gynecology (AJOG), qui fut créé la même année, puis co-éditeur. Il a notamment développé la rubrique dédiée aux publications médicales internationales[3]. Il restera éditeur de la revue jusqu'à sa mort.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1920, Hugo Ehrenfest devient associé-directeur de la revue médicale American Journal of Obstetrics and Gynecology (AJOG), qui fut créé la même année, puis co-éditeur. Il a notamment développé la rubrique dédiée aux publications médicales internationales. Il restera éditeur de la revue jusqu'à sa mort.
 </t>
         </is>
       </c>
@@ -576,59 +592,173 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En tant que scientifique, Hugo Ehrenfest a focalisé ses recherches sur le traumatisme cérébral occasionné par la naissance. En 1922, il a publié le volume Birth Injury of the Child, intégré à une collection encyclopédique regroupant les connaissances obstétriques, éditée par Appleton.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant que scientifique, Hugo Ehrenfest a focalisé ses recherches sur le traumatisme cérébral occasionné par la naissance. En 1922, il a publié le volume Birth Injury of the Child, intégré à une collection encyclopédique regroupant les connaissances obstétriques, éditée par Appleton.
 Il a également publié des travaux sur la fièvre puerpérale et sur l'éclampsie.
-Publications
-Sur le traumatisme cérébral de la naissance
-1921 : (en) Hugo Ehrenfest, « Intracranial birth trauma of the newborn from the standpoint of the obstetrician. », American Journal of Obstetrics and Gyneocology, vol. 27, no 2,‎ 1921, p. 103-107
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sur le traumatisme cérébral de la naissance</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1921 : (en) Hugo Ehrenfest, « Intracranial birth trauma of the newborn from the standpoint of the obstetrician. », American Journal of Obstetrics and Gyneocology, vol. 27, no 2,‎ 1921, p. 103-107
 1922 : (en) Hugo Ehrenfest, « Better obstetrics and the problem of the birth injuries of the newborn infant. », American Journal of Obstetrics and Gyneocology,‎ 1922 (DOI 10.1016/S0002-9378(15)32668-5)
 1923 : (en) Hugo Ehrenfest, « The causation of intracranial hemorrhages in the newborn. », American Journal of Diseases of Children,‎ 1923 (DOI 10.1001/archpedi.1923.04120180002001)
 1925 : (en) Hugo Ehrenfest, « New information concerning the causation and the sequelae of intracranial birth lesions. », American Journal of Obstetrics and Gyneocology,‎ 1925 (DOI 10.1016/S0002-9378(25)90608-4)
 1929 : (en) Hugo Ehrenfest, « Can intracranial birth injury be prevented ? », Journal of the American Medical Association,‎ 1929 (DOI 10.1001/jama.1929.02700280001001)
 1931 : (en) Hugo Ehrenfest, « Factors and causes of fetal, newly born, and maternal morbidity and mortality. », American Journal of Obstetrics and Gyneocology,‎ 1931 (DOI 10.1016/S0002-9378(15)30551-2)
-1932 : (en) Hugo Ehrenfest, « The relation of birth trauma to neonatal mortality and infant morbidity. », American Journal of Diseases of Children,‎ 1932 (DOI 10.1001/archpedi.1932.01950020158017)
-Autres
-1906 : (en) Hugo Ehrenfest, « A simple device for irrigation of the bladder. », Journal of the American Medical Association,‎ 1906 (DOI 10.1001/jama.1906.62510430019003b)
+1932 : (en) Hugo Ehrenfest, « The relation of birth trauma to neonatal mortality and infant morbidity. », American Journal of Diseases of Children,‎ 1932 (DOI 10.1001/archpedi.1932.01950020158017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1906 : (en) Hugo Ehrenfest, « A simple device for irrigation of the bladder. », Journal of the American Medical Association,‎ 1906 (DOI 10.1001/jama.1906.62510430019003b)
 1916 : (en) Hugo Ehrenfest, « Syphilis of the internal genital organs in the female. », Syphilis in its relation to obstetrical &amp; gynecological practise.,‎ 1916 (OCLC 84181675)
 1921 : (en) Hugo Ehrenfest, « Nitrous oxide-oxygen analgesia and anesthesia in normal labor and operative obstetrics. », American Journal of Obstetrics and Gynecology,‎ 1921 (DOI 10.1016/S0002-9378(21)90172-8)
 1933 : (en) Hugo Ehrenfest, « Acute epidemic poliomyelitis complicating pregnancy. », Journal of the American Medical Association,‎ 1933 (DOI 10.1001/jama.1933.02740390053028)
 1934 : (en) Hugo Ehrenfest, « Treatment of Pyelonephritis during pregnancy. », American Journal of Obstetrics and Gynecology,‎ 1934 (DOI 10.1016/S0002-9378(34)91080-2)
-1942 : (en) Hugo Ehrenfest, « The effect of pregnancy and the puerperal state on the growth of malignant tumors. », American Journal of Obstetrics and Gynecology,‎ 1942 (DOI 10.1016/S0002-9378(42)91056-1)
-Ouvrages
-1912 : (en) Hugo Ehrenfest, The Midwife in the United States., Saint-Louis, Interstate Medical Journal, 1912 (OCLC 1255619374)
+1942 : (en) Hugo Ehrenfest, « The effect of pregnancy and the puerperal state on the growth of malignant tumors. », American Journal of Obstetrics and Gynecology,‎ 1942 (DOI 10.1016/S0002-9378(42)91056-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hugo_Ehrenfest</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Travaux scientifiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1912 : (en) Hugo Ehrenfest, The Midwife in the United States., Saint-Louis, Interstate Medical Journal, 1912 (OCLC 1255619374)
 1922 : (en) Ehrenfest, Birth injuries of the child., New York, Londres, D.Appleton and Company, coll. « Gynecological and obstetrical monographs », 1922 (OCLC 9743531)
 1926 : (en) Hugo Ehrenfest et Robert Koehler, The Therapy of Puerperal Fever., Londres, Henry Kimpton, 1926 (OCLC 29663022)
 1933 : (en) Hugo Ehrenfest, Fetal, newborn and maternal morbidity and mortality., New York, Appleton, coll. « White House Conference on Child Health and Protection », 1933 (OCLC 251382376)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Hugo_Ehrenfest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hugo_Ehrenfest</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Fred.J Taussig, « In memoriam Hugo Ehrenfest (1870-1942) », American Journal of Obstetrics and Gynecology (AJOG),‎ 1942 (DOI 10.1016/S0002-9378(42)90472-1)
